--- a/品优购后台表关系.xlsx
+++ b/品优购后台表关系.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42338321-E680-4531-ACA2-BF76ED87F633}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48AC732-B2ED-49D2-9423-C8F8B9BCC1B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4185,6 +4185,149 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>22408</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="61" name="组合 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B30F84DF-C7A2-4621-88EA-BE7D6A0CB1E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="24148676" y="6185647"/>
+          <a:ext cx="1938614" cy="2375648"/>
+          <a:chOff x="11609294" y="4919382"/>
+          <a:chExt cx="1367111" cy="2039471"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="66" name="直接连接符 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7986C636-B677-41FE-B1FD-F065BF9F967B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11609294" y="6947647"/>
+            <a:ext cx="672353" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="67" name="直接连接符 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE3A2A9F-1CD5-48AE-BB28-603857F83E53}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="12281647" y="4919382"/>
+            <a:ext cx="0" cy="2039471"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="68" name="直接箭头连接符 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36853479-D6A0-4C71-8EB0-96003686B2FB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12281647" y="4919382"/>
+            <a:ext cx="694765" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4870,8 +5013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A23481-9087-41C9-BCCF-439B02B11C5B}">
   <dimension ref="E7:AR85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q79" sqref="Q79"/>
+    <sheetView tabSelected="1" topLeftCell="T29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC31" sqref="AC31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7252,11 +7395,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="W33:Z33"/>
-    <mergeCell ref="W61:Z61"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="AD61:AG61"/>
-    <mergeCell ref="AD39:AG39"/>
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="Q33:T33"/>
     <mergeCell ref="K41:N41"/>
@@ -7268,6 +7406,11 @@
     <mergeCell ref="K27:N27"/>
     <mergeCell ref="E47:H47"/>
     <mergeCell ref="E54:H54"/>
+    <mergeCell ref="W33:Z33"/>
+    <mergeCell ref="W61:Z61"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="AD61:AG61"/>
+    <mergeCell ref="AD39:AG39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/品优购后台表关系.xlsx
+++ b/品优购后台表关系.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48AC732-B2ED-49D2-9423-C8F8B9BCC1B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAF893E-EEEB-42FE-9207-99B2A112AB50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2385,8 +2385,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1938618" y="6051177"/>
-          <a:ext cx="805142" cy="1258956"/>
+          <a:off x="1946413" y="6141798"/>
+          <a:ext cx="812938" cy="1279420"/>
           <a:chOff x="1938618" y="3361765"/>
           <a:chExt cx="805142" cy="1258957"/>
         </a:xfrm>
@@ -2638,8 +2638,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7023846" y="5086350"/>
-          <a:ext cx="496932" cy="3131460"/>
+          <a:off x="7058438" y="5168202"/>
+          <a:ext cx="499856" cy="3175309"/>
           <a:chOff x="6729644" y="2418790"/>
           <a:chExt cx="807944" cy="3156673"/>
         </a:xfrm>
@@ -2781,8 +2781,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6488206" y="5153585"/>
-          <a:ext cx="1042098" cy="6720168"/>
+          <a:off x="6518901" y="5235437"/>
+          <a:ext cx="1048919" cy="6810789"/>
           <a:chOff x="6729644" y="2418790"/>
           <a:chExt cx="807944" cy="3156673"/>
         </a:xfrm>
@@ -2924,8 +2924,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12207687" y="6221353"/>
-          <a:ext cx="1593959" cy="3372484"/>
+          <a:off x="12254947" y="6314898"/>
+          <a:ext cx="1609549" cy="3428026"/>
           <a:chOff x="11609294" y="4919382"/>
           <a:chExt cx="1367118" cy="2039471"/>
         </a:xfrm>
@@ -3067,8 +3067,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6976222" y="9454562"/>
-          <a:ext cx="543195" cy="3981130"/>
+          <a:off x="7010814" y="9600726"/>
+          <a:ext cx="546119" cy="4033749"/>
           <a:chOff x="6729644" y="2418790"/>
           <a:chExt cx="807944" cy="3156673"/>
         </a:xfrm>
@@ -3210,8 +3210,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6680948" y="5864599"/>
-          <a:ext cx="821100" cy="8159962"/>
+          <a:off x="6715540" y="5952297"/>
+          <a:ext cx="821100" cy="8273970"/>
           <a:chOff x="6729644" y="2418790"/>
           <a:chExt cx="807944" cy="3156673"/>
         </a:xfrm>
@@ -3353,8 +3353,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="12224206" y="5455024"/>
-          <a:ext cx="377317" cy="8409293"/>
+          <a:off x="12279261" y="5542722"/>
+          <a:ext cx="377317" cy="8520378"/>
           <a:chOff x="6729644" y="2418790"/>
           <a:chExt cx="807944" cy="3156673"/>
         </a:xfrm>
@@ -3496,8 +3496,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="12006302" y="9440956"/>
-          <a:ext cx="1573546" cy="4801720"/>
+          <a:off x="12053562" y="9587120"/>
+          <a:ext cx="1589136" cy="4860185"/>
           <a:chOff x="11609294" y="4919382"/>
           <a:chExt cx="1367118" cy="2039471"/>
         </a:xfrm>
@@ -3639,8 +3639,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1945341" y="8724899"/>
-          <a:ext cx="805142" cy="1483659"/>
+          <a:off x="1953136" y="8859370"/>
+          <a:ext cx="812938" cy="1507045"/>
           <a:chOff x="1938618" y="3361765"/>
           <a:chExt cx="805142" cy="1258957"/>
         </a:xfrm>
@@ -3782,8 +3782,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="18075088" y="6219265"/>
-          <a:ext cx="1389530" cy="4332194"/>
+          <a:off x="18138913" y="6312810"/>
+          <a:ext cx="1394402" cy="4402352"/>
           <a:chOff x="11609294" y="4919382"/>
           <a:chExt cx="1367118" cy="2039471"/>
         </a:xfrm>
@@ -3925,8 +3925,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="18075086" y="1714501"/>
-          <a:ext cx="1602442" cy="6855120"/>
+          <a:off x="18138911" y="1740811"/>
+          <a:ext cx="1607314" cy="6960358"/>
           <a:chOff x="11609294" y="4919382"/>
           <a:chExt cx="1367118" cy="2039471"/>
         </a:xfrm>
@@ -4068,8 +4068,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="24008308" y="6185646"/>
-          <a:ext cx="992015" cy="5636560"/>
+          <a:off x="24090647" y="6279191"/>
+          <a:ext cx="1001759" cy="5715488"/>
           <a:chOff x="6729644" y="2418790"/>
           <a:chExt cx="807944" cy="3156673"/>
         </a:xfrm>
@@ -4211,8 +4211,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="24148676" y="6185647"/>
-          <a:ext cx="1938614" cy="2375648"/>
+          <a:off x="24236861" y="6279192"/>
+          <a:ext cx="1950308" cy="2413651"/>
           <a:chOff x="11609294" y="4919382"/>
           <a:chExt cx="1367111" cy="2039471"/>
         </a:xfrm>
@@ -5013,8 +5013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A23481-9087-41C9-BCCF-439B02B11C5B}">
   <dimension ref="E7:AR85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC31" sqref="AC31"/>
+    <sheetView tabSelected="1" topLeftCell="M34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41:N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7395,6 +7395,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="W33:Z33"/>
+    <mergeCell ref="W61:Z61"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="AD61:AG61"/>
+    <mergeCell ref="AD39:AG39"/>
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="Q33:T33"/>
     <mergeCell ref="K41:N41"/>
@@ -7406,11 +7411,6 @@
     <mergeCell ref="K27:N27"/>
     <mergeCell ref="E47:H47"/>
     <mergeCell ref="E54:H54"/>
-    <mergeCell ref="W33:Z33"/>
-    <mergeCell ref="W61:Z61"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="AD61:AG61"/>
-    <mergeCell ref="AD39:AG39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
